--- a/ValueSet-uscore-medicationstatement-status.xlsx
+++ b/ValueSet-uscore-medicationstatement-status.xlsx
@@ -97,7 +97,7 @@
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[true]</t>
+    <t>BooleanType[null]</t>
   </si>
   <si>
     <t>Codes</t>
